--- a/FP1-G54-350-1201/FP1-log-G54-4794-350-1201.xlsx
+++ b/FP1-G54-350-1201/FP1-log-G54-4794-350-1201.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\ENSC350FP\ExU\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\ENSC350FP\FP1-G54-350-1201\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFC0205-6E62-4755-9589-6D5FD279C51D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C37D5A-9840-4290-950D-475923CC3EBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity Log" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Start working on documentations, screenshot descriptions, etc.</t>
   </si>
   <si>
-    <t>Adding anotations to pdf and submitting</t>
-  </si>
-  <si>
     <t>Worked on arithmetic unit implementing Adder, Zero, ExtWord MUX, AltB  and AltBu</t>
   </si>
   <si>
@@ -105,6 +102,12 @@
   </si>
   <si>
     <t>Worked on ripple adder implementation</t>
+  </si>
+  <si>
+    <t>Adding anotations to pdf</t>
+  </si>
+  <si>
+    <t>Added table of contents, formatting and submitting</t>
   </si>
 </sst>
 </file>
@@ -692,7 +695,7 @@
   <dimension ref="A1:G756"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,7 +805,7 @@
         <v>0.90625</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -819,7 +822,7 @@
         <v>0.95138888888888884</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -836,7 +839,7 @@
         <v>0.93055555555555547</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -853,7 +856,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -953,15 +956,23 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="13"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="22"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="10">
+        <v>43926</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="E18" s="22">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="13"/>
